--- a/config/mails.xlsx
+++ b/config/mails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iharm\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ПК\Desktop\projects\visa_bot\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF1342B-52A5-4147-9DB4-F442CB68EF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1296B8-0220-468B-BF87-3C0EA93F8215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19A770F4-4DCE-4FB6-B72C-83203FE6D766}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{19A770F4-4DCE-4FB6-B72C-83203FE6D766}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Почта</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Пароль от аккаунта vfsglobal.com</t>
   </si>
   <si>
-    <t>Пароль от почты mail.ru</t>
-  </si>
-  <si>
     <t>sabayda96@bk.ru</t>
   </si>
   <si>
@@ -51,36 +48,6 @@
     <t>artem.yevtukhovich.91@bk.ru</t>
   </si>
   <si>
-    <t>igor.drozdovskiy.81@bk.ru</t>
-  </si>
-  <si>
-    <t>maks.tereshko.87@bk.ru</t>
-  </si>
-  <si>
-    <t>stanislav.novikov.1993@internet.ru</t>
-  </si>
-  <si>
-    <t>vika.teveleva.83@bk.ru</t>
-  </si>
-  <si>
-    <t>sanya.zinovenko.86@bk.ru</t>
-  </si>
-  <si>
-    <t>yura.bakanov.88@bk.ru</t>
-  </si>
-  <si>
-    <t>andrey.mironenko.64@bk.ru</t>
-  </si>
-  <si>
-    <t>andrey.burunov.83@bk.ru</t>
-  </si>
-  <si>
-    <t>serzh.neverkovich.85@bk.ru</t>
-  </si>
-  <si>
-    <t>sanya.badanin.79@bk.ru</t>
-  </si>
-  <si>
     <t>serzh.mlenik.84@bk.ru</t>
   </si>
   <si>
@@ -90,9 +57,6 @@
     <t>mikhail.kononovich.78@bk.ru</t>
   </si>
   <si>
-    <t>yevgeniy.avgul.96@bk.ru</t>
-  </si>
-  <si>
     <t>vadim.sokolovskiy.95@bk.ru</t>
   </si>
   <si>
@@ -105,80 +69,29 @@
     <t>deniska_romanov_2023@bk.ru</t>
   </si>
   <si>
-    <t>ivan.razvedskiy.93@bk.ru</t>
-  </si>
-  <si>
-    <t>3iYaue1tYON=</t>
-  </si>
-  <si>
-    <t>OAOc3Oos(3ri</t>
-  </si>
-  <si>
-    <t>u+rPOjAEor28</t>
-  </si>
-  <si>
-    <t>eROyyY2^t7aI</t>
-  </si>
-  <si>
-    <t>uAu$rrAoY4C3</t>
-  </si>
-  <si>
-    <t>v2utU.cuYEY5</t>
-  </si>
-  <si>
-    <t>TArY2T3priy^</t>
-  </si>
-  <si>
-    <t>aOpTyUfaI5(5</t>
-  </si>
-  <si>
-    <t>IzGYoAafi11%</t>
-  </si>
-  <si>
-    <t>uyoat@UY4ZT7</t>
-  </si>
-  <si>
-    <t>aPZUaRu1$ye2</t>
-  </si>
-  <si>
-    <t>pcriAo3R3TZ&amp;</t>
-  </si>
-  <si>
-    <t>PiTrpta:UE12</t>
-  </si>
-  <si>
-    <t>A-DoatTVu3p1</t>
-  </si>
-  <si>
-    <t>rpY4IoOaEp2*</t>
-  </si>
-  <si>
-    <t>ErisfPEOi14$</t>
-  </si>
-  <si>
-    <t>ZYTU*utupu22</t>
-  </si>
-  <si>
-    <t>AicyYke*TO13</t>
-  </si>
-  <si>
-    <t>RaIRBui3i4/s</t>
-  </si>
-  <si>
-    <t>pXXl4pUoUp4)</t>
-  </si>
-  <si>
-    <t>R2aOrOrPy&amp;1u</t>
+    <t xml:space="preserve">ivan.razvedskiy.93@bk.ru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yevgeniy.avgul.96@bk.ru </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -202,14 +115,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,262 +439,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15534A7-C631-4815-8E35-B7845E92CFAE}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{EA165268-8C46-4CDB-9B04-087727E8C055}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{202513C8-DDB2-4C0B-B17D-86A8B1F00630}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{4639B35E-AC0A-423F-AD5B-3A65F5E9B029}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{AB2C0BEC-850D-4446-8123-BAC1142D3F64}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{5161F3FE-8224-4063-A0DB-C5505230CE26}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{C0006161-20A5-46E8-B0FC-991347AF85BB}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{1CC50943-0EE5-41FD-84BB-15CF2A5E2B27}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{AD14C73A-09AD-4CBF-9A69-541E83C6B640}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{58BF6D3A-B309-4FEF-B3B9-20AF0C17E16C}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{0F0E0F29-A934-4783-8AA7-DDAC4825E970}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{CFAE3FB5-BFC3-4CE2-936A-9188343CE780}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{682FA8F2-6BBE-407D-BAAA-3FC1BAB12DA8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/mails.xlsx
+++ b/config/mails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ПК\Desktop\projects\visa_bot\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1296B8-0220-468B-BF87-3C0EA93F8215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ADB1A8-0277-42F1-93B3-1A3EF1203631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{19A770F4-4DCE-4FB6-B72C-83203FE6D766}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15534A7-C631-4815-8E35-B7845E92CFAE}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,24 +461,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -494,39 +494,39 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
+      <c r="A10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -542,14 +542,14 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -566,29 +566,22 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{EA165268-8C46-4CDB-9B04-087727E8C055}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{202513C8-DDB2-4C0B-B17D-86A8B1F00630}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{4639B35E-AC0A-423F-AD5B-3A65F5E9B029}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{AB2C0BEC-850D-4446-8123-BAC1142D3F64}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{5161F3FE-8224-4063-A0DB-C5505230CE26}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{C0006161-20A5-46E8-B0FC-991347AF85BB}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{1CC50943-0EE5-41FD-84BB-15CF2A5E2B27}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{AD14C73A-09AD-4CBF-9A69-541E83C6B640}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{58BF6D3A-B309-4FEF-B3B9-20AF0C17E16C}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{0F0E0F29-A934-4783-8AA7-DDAC4825E970}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{CFAE3FB5-BFC3-4CE2-936A-9188343CE780}"/>
-    <hyperlink ref="A12" r:id="rId12" xr:uid="{682FA8F2-6BBE-407D-BAAA-3FC1BAB12DA8}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EA165268-8C46-4CDB-9B04-087727E8C055}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{202513C8-DDB2-4C0B-B17D-86A8B1F00630}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{4639B35E-AC0A-423F-AD5B-3A65F5E9B029}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{AB2C0BEC-850D-4446-8123-BAC1142D3F64}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{5161F3FE-8224-4063-A0DB-C5505230CE26}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{C0006161-20A5-46E8-B0FC-991347AF85BB}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{1CC50943-0EE5-41FD-84BB-15CF2A5E2B27}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{AD14C73A-09AD-4CBF-9A69-541E83C6B640}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{58BF6D3A-B309-4FEF-B3B9-20AF0C17E16C}"/>
+    <hyperlink ref="A7" r:id="rId10" xr:uid="{0F0E0F29-A934-4783-8AA7-DDAC4825E970}"/>
+    <hyperlink ref="A8" r:id="rId11" xr:uid="{CFAE3FB5-BFC3-4CE2-936A-9188343CE780}"/>
+    <hyperlink ref="A9" r:id="rId12" xr:uid="{682FA8F2-6BBE-407D-BAAA-3FC1BAB12DA8}"/>
+    <hyperlink ref="A11" r:id="rId13" xr:uid="{E237C048-B344-4F24-8227-DF5B72C30B76}"/>
+    <hyperlink ref="A12" r:id="rId14" xr:uid="{387E2BCF-C7C3-4747-B02B-19B3AFC3FD68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
